--- a/Additional_data/Amino_acids_vitamins_sec_systems.xlsx
+++ b/Additional_data/Amino_acids_vitamins_sec_systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03d0ad81bf276083/ThinkPad_working/Sutor/Science/Spongy/Scripts/Sponge_metagenomes_2024/Additional_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="934" documentId="8_{A9EC3FC4-70C6-4484-94A9-E5B28722F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD56E41-FABC-40DD-9C69-3780D24640D5}"/>
+  <xr:revisionPtr revIDLastSave="943" documentId="8_{A9EC3FC4-70C6-4484-94A9-E5B28722F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11807853-F742-4508-9BD5-19F4C135BB15}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="3" activeTab="5" xr2:uid="{FD6FAD5E-F6DE-4967-B470-E37824C73071}"/>
   </bookViews>
@@ -376,9 +376,6 @@
     <t>H_panicea_OTU_23_sp</t>
   </si>
   <si>
-    <t>H_panicea_Amylibacter/OY365741_1_sp</t>
-  </si>
-  <si>
     <t>H_panicea_OTU_4_sp</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>Cobalamin (B12)</t>
   </si>
   <si>
-    <t>OTU 4 (Amylibacter)</t>
-  </si>
-  <si>
     <t>Isodictya sp.</t>
   </si>
   <si>
@@ -584,6 +578,12 @@
   </si>
   <si>
     <t>T5aSS</t>
+  </si>
+  <si>
+    <t>Ca. Halichondribacter symbioticus (c.g.)</t>
+  </si>
+  <si>
+    <t>Ca. Halichondribacter symbioticus (OY365741_1 c.g.)</t>
   </si>
 </sst>
 </file>
@@ -679,6 +679,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1001,49 +1005,49 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1078,7 +1082,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1113,7 +1117,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -1148,7 +1152,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1183,7 +1187,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1218,7 +1222,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1253,7 +1257,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1288,7 +1292,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1323,7 +1327,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -1358,7 +1362,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1393,7 +1397,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>0.71</v>
@@ -1428,7 +1432,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1463,7 +1467,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1498,7 +1502,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1533,7 +1537,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1568,7 +1572,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17">
         <v>0.67</v>
@@ -1603,7 +1607,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <v>0.83</v>
@@ -1638,7 +1642,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1673,7 +1677,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1708,7 +1712,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <v>0.33</v>
@@ -1763,7 +1767,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1773,42 +1777,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>0.56999999999999995</v>
@@ -1843,7 +1847,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>0.4</v>
@@ -1878,7 +1882,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1913,7 +1917,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>0.67</v>
@@ -1948,7 +1952,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1983,7 +1987,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>0.4</v>
@@ -2018,7 +2022,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2053,7 +2057,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>0.56000000000000005</v>
@@ -2088,7 +2092,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10">
         <v>0.67</v>
@@ -2123,7 +2127,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -2158,7 +2162,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -2193,7 +2197,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13">
         <v>0.4</v>
@@ -2228,7 +2232,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2263,7 +2267,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2298,7 +2302,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2333,7 +2337,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17">
         <v>0.2</v>
@@ -2368,7 +2372,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18">
         <v>0.11</v>
@@ -2403,7 +2407,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2438,7 +2442,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2493,7 +2497,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2503,36 +2507,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
       <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
-      </c>
-      <c r="I1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2561,7 +2565,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2590,7 +2594,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2619,7 +2623,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2648,7 +2652,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2677,7 +2681,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -2706,7 +2710,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2735,7 +2739,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2764,7 +2768,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2793,7 +2797,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B11" s="4">
         <v>0.75</v>
@@ -2830,7 +2834,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2840,36 +2844,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
       <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
-      </c>
-      <c r="I1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2898,7 +2902,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="5">
         <v>0.33</v>
@@ -2927,7 +2931,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -2956,7 +2960,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -2993,31 +2997,31 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>178</v>
-      </c>
-      <c r="E1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3037,7 +3041,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3057,7 +3061,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3077,7 +3081,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3097,7 +3101,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -3117,7 +3121,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3137,7 +3141,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3164,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC2AE15-62F9-42C3-BDB4-39A28A9D9DA3}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3197,16 +3201,16 @@
         <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Additional_data/Amino_acids_vitamins_sec_systems.xlsx
+++ b/Additional_data/Amino_acids_vitamins_sec_systems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03d0ad81bf276083/ThinkPad_working/Sutor/Science/Spongy/Scripts/Sponge_metagenomes_2024/Additional_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusla\OneDrive\Desktop\Final\Paper\Sponge_metagenomes_2024_Dima_GitHub\Sponge_metagenomes_2024-main\Additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="943" documentId="8_{A9EC3FC4-70C6-4484-94A9-E5B28722F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11807853-F742-4508-9BD5-19F4C135BB15}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF39C8-9FAC-4D1E-8621-79737DC2EA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="3" activeTab="5" xr2:uid="{FD6FAD5E-F6DE-4967-B470-E37824C73071}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FD6FAD5E-F6DE-4967-B470-E37824C73071}"/>
   </bookViews>
   <sheets>
     <sheet name="KEGG_aa_symb_strains_simpl" sheetId="9" r:id="rId1"/>
@@ -28,12 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="179">
   <si>
     <t>module_name</t>
   </si>
@@ -523,9 +518,6 @@
     <t>Menaquinone (K2)</t>
   </si>
   <si>
-    <t>Plastoquinone (PQ)</t>
-  </si>
-  <si>
     <t>Tocopherol (TCP)</t>
   </si>
   <si>
@@ -538,15 +530,9 @@
     <t>Branched-chain amino acid</t>
   </si>
   <si>
-    <t>Oligopeptide</t>
-  </si>
-  <si>
     <t>Dipeptide/Heme/alpha-Aminolevulinic acid</t>
   </si>
   <si>
-    <t>Microcin C</t>
-  </si>
-  <si>
     <t>Lys/Arg/Ornithine</t>
   </si>
   <si>
@@ -562,9 +548,6 @@
     <t>Thiamin (B1)</t>
   </si>
   <si>
-    <t>Nucleoside</t>
-  </si>
-  <si>
     <t>T4aP</t>
   </si>
   <si>
@@ -584,13 +567,19 @@
   </si>
   <si>
     <t>Ca. Halichondribacter symbioticus (OY365741_1 c.g.)</t>
+  </si>
+  <si>
+    <t>Oligopeptide (OppABCDF)</t>
+  </si>
+  <si>
+    <t>Microcin C (Oligopeptide YejABEF)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,7 +655,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1004,13 +993,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838DA69-441F-46D9-9F1F-E2978D09EE39}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -1018,7 +1007,7 @@
         <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
         <v>116</v>
@@ -1045,7 +1034,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -1080,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -1115,7 +1104,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -1150,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -1176,16 +1165,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -1220,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -1228,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1255,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -1290,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -1325,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -1360,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -1395,7 +1384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -1430,7 +1419,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -1465,7 +1454,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -1500,7 +1489,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -1535,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1570,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -1605,7 +1594,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -1640,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -1675,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -1710,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -1764,18 +1753,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82F7FC4-8056-44F7-9398-8AAA7D68FD5E}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.89453125" customWidth="1"/>
+    <col min="1" max="1" width="23.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -1783,7 +1772,7 @@
         <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
         <v>116</v>
@@ -1810,7 +1799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -1845,7 +1834,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -1880,7 +1869,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1915,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -1950,7 +1939,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -1985,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -2020,7 +2009,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -2055,9 +2044,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9">
         <v>0.56000000000000005</v>
@@ -2090,7 +2079,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2125,7 +2114,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -2160,7 +2149,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -2195,7 +2184,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -2230,7 +2219,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -2265,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -2300,7 +2289,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -2335,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -2370,7 +2359,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -2405,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -2440,44 +2429,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.5</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K20">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B2:K19">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2497,15 +2451,15 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -2513,7 +2467,7 @@
         <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
         <v>116</v>
@@ -2534,9 +2488,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2563,9 +2517,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2592,7 +2546,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -2621,9 +2575,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2650,9 +2604,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2679,9 +2633,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -2708,9 +2662,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2737,9 +2691,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2766,9 +2720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2795,9 +2749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B11" s="4">
         <v>0.75</v>
@@ -2831,18 +2785,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222F1ABA-E18F-417B-8D1B-B59A31C42CCE}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.3671875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -2850,7 +2804,7 @@
         <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
         <v>116</v>
@@ -2871,21 +2825,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.33</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2896,42 +2850,42 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="F3" s="3">
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -2939,51 +2893,22 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
@@ -3000,26 +2925,26 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -3039,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3059,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3079,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3099,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3119,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3139,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -3168,23 +3093,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC2AE15-62F9-42C3-BDB4-39A28A9D9DA3}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="23.5234375" customWidth="1"/>
-    <col min="3" max="3" width="20.89453125" customWidth="1"/>
-    <col min="4" max="4" width="20.3671875" customWidth="1"/>
-    <col min="5" max="5" width="22.3671875" customWidth="1"/>
-    <col min="6" max="6" width="36.1015625" customWidth="1"/>
-    <col min="7" max="7" width="20.89453125" customWidth="1"/>
-    <col min="8" max="9" width="21.89453125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="20.9140625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.08203125" customWidth="1"/>
+    <col min="7" max="7" width="20.9140625" customWidth="1"/>
+    <col min="8" max="9" width="21.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3201,7 +3126,7 @@
         <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>111</v>
@@ -3213,7 +3138,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3242,7 +3167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3271,7 +3196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3300,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3329,7 +3254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3358,7 +3283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3387,7 +3312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3416,7 +3341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3445,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3474,7 +3399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3503,7 +3428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3532,7 +3457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3561,7 +3486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3590,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -3619,7 +3544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -3648,7 +3573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3677,7 +3602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3706,7 +3631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3735,7 +3660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -3764,7 +3689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3793,7 +3718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3822,7 +3747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -3851,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3880,7 +3805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3909,7 +3834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3938,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3967,7 +3892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3996,7 +3921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4025,7 +3950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -4054,7 +3979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -4083,7 +4008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4112,7 +4037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -4141,7 +4066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -4170,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -4199,7 +4124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -4228,7 +4153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -4257,7 +4182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -4286,7 +4211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -4315,7 +4240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -4344,7 +4269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -4373,7 +4298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -4402,7 +4327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -4431,7 +4356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -4460,7 +4385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -4489,7 +4414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -4518,7 +4443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -4547,7 +4472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -4576,7 +4501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -4605,7 +4530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -4634,7 +4559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -4663,7 +4588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -4692,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -4721,7 +4646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -4750,7 +4675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -4779,7 +4704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -4808,7 +4733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -4837,7 +4762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -4866,7 +4791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -4895,7 +4820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -4924,7 +4849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -4953,7 +4878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -4982,7 +4907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -5011,7 +4936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -5040,7 +4965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -5069,7 +4994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -5098,7 +5023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -5127,7 +5052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -5156,7 +5081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -5185,7 +5110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -5214,7 +5139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>106</v>
       </c>
